--- a/surveys/characterization.xlsx
+++ b/surveys/characterization.xlsx
@@ -2322,7 +2322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N10" sqref="N10:O10"/>
@@ -4107,16 +4107,6 @@
       <c r="BB39" s="90" t="n"/>
       <c r="BC39" s="90" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="78">
     <mergeCell ref="A1:S1"/>
